--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-telecom-usage</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-contact-telecom-usage</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-01</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:28:22+00:00</t>
+    <t>2023-02-17T16:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-contact-telecom-usage</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-telecom-usage</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:29:47+00:00</t>
+    <t>2022-07-01</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-telecom-usage</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-contact-telecom-usage</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-01</t>
+    <t>2023-02-22T17:20:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-contact-telecom-usage</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-contact-telecom-usage</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-contact-telecom-usage</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-telecom-usage</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T11:20:10+00:00</t>
+    <t>2022-07-01</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-telecom-usage</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-contact-telecom-usage</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-01</t>
+    <t>2023-02-24T16:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
